--- a/cards/customer_cardholder/customer_cardholder.xlsx
+++ b/cards/customer_cardholder/customer_cardholder.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ28"/>
+  <dimension ref="A1:CM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,571 +440,545 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_ab_id</t>
+          <t>cus_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_emitted_at</t>
+          <t>cus_iden</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>cus_code</t>
+          <t>cus_tit1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cus_iden</t>
+          <t>cus_tit2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cus_tit1</t>
+          <t>cus_type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cus_tit2</t>
+          <t>cus_gend1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cus_type</t>
+          <t>cus_gend2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>cus_gend1</t>
+          <t>cus_ban_code</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>cus_gend2</t>
+          <t>cus_bra_code</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>cus_ban_code</t>
+          <t>cus_ccs_code</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>cus_bra_code</t>
+          <t>cus_corp_dba</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cus_ccs_code</t>
+          <t>cus_cou_cod1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cus_corp_dba</t>
+          <t>cus_cou_cod2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>cus_cou_cod1</t>
+          <t>cus_csr_code</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>cus_cou_cod2</t>
+          <t>cus_cup_code</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>cus_csr_code</t>
+          <t>cus_mst_cod1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>cus_cup_code</t>
+          <t>cus_mst_cod2</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>cus_mst_cod1</t>
+          <t>cus_net_sal1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>cus_mst_cod2</t>
+          <t>cus_net_sal2</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>cus_net_sal1</t>
+          <t>cus_ppo_cod1</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>cus_net_sal2</t>
+          <t>cus_ppo_cod2</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>cus_ppo_cod1</t>
+          <t>cus_pro_code</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>cus_ppo_cod2</t>
+          <t>cus_slb_code</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>cus_pro_code</t>
+          <t>cus_tax_numb</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>cus_slb_code</t>
+          <t>cus_vca_code</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>cus_tax_numb</t>
+          <t>cus_beha_scor</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>cus_vca_code</t>
+          <t>cus_birt_dat1</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>cus_beha_scor</t>
+          <t>cus_birt_dat2</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>cus_birt_dat1</t>
+          <t>cus_birt_loc1</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>cus_birt_dat2</t>
+          <t>cus_birt_loc2</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>cus_birt_loc1</t>
+          <t>cus_capi_amou</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>cus_birt_loc2</t>
+          <t>cus_char_flag</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>cus_capi_amou</t>
+          <t>cus_chld_num1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>cus_char_flag</t>
+          <t>cus_chld_num2</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>cus_chld_num1</t>
+          <t>cus_cnss_numb</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>cus_chld_num2</t>
+          <t>cus_comp_type</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>cus_cnss_numb</t>
+          <t>cus_corp_name</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>cus_comp_type</t>
+          <t>cus_crea_date</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>cus_corp_name</t>
+          <t>cus_cred_flag</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>cus_crea_date</t>
+          <t>cus_cust_pare</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>cus_cred_flag</t>
+          <t>cus_debi_flag</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>cus_cust_pare</t>
+          <t>cus_deli_meth</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>cus_debi_flag</t>
+          <t>cus_email_adr</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>cus_deli_meth</t>
+          <t>cus_empl_age1</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>cus_email_adr</t>
+          <t>cus_empl_age2</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>cus_empl_age1</t>
+          <t>cus_empl_cod1</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>cus_empl_age2</t>
+          <t>cus_empl_cod2</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>cus_empl_cod1</t>
+          <t>cus_empl_nam1</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>cus_empl_cod2</t>
+          <t>cus_empl_nam2</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>cus_empl_nam1</t>
+          <t>cus_ense_name</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>cus_empl_nam2</t>
+          <t>cus_file_numb</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>cus_ense_name</t>
+          <t>cus_firs_ide1</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>cus_file_numb</t>
+          <t>cus_firs_ide2</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>cus_firs_ide1</t>
+          <t>cus_firs_nam1</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>cus_firs_ide2</t>
+          <t>cus_firs_nam2</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>cus_firs_nam1</t>
+          <t>cus_gros_sal1</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>cus_firs_nam2</t>
+          <t>cus_gros_sal2</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>cus_gros_sal1</t>
+          <t>cus_last_nam1</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>cus_gros_sal2</t>
+          <t>cus_last_nam2</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>cus_last_nam1</t>
+          <t>cus_lice_numb</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>cus_last_nam2</t>
+          <t>cus_midd_nam1</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>cus_lice_numb</t>
+          <t>cus_midd_nam2</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>cus_midd_nam1</t>
+          <t>cus_phon_numb</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>cus_midd_nam2</t>
+          <t>cus_scor_resu</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>cus_phon_numb</t>
+          <t>cus_seco_ide1</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>cus_scor_resu</t>
+          <t>cus_seco_ide2</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>cus_seco_ide1</t>
+          <t>cus_sire_numb</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>cus_seco_ide2</t>
+          <t>cus_site_type</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>cus_sire_numb</t>
+          <t>cus_stat_date</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>cus_site_type</t>
+          <t>cus_bank_account</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>cus_stat_date</t>
+          <t>cus_defa_acc_code</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>cus_bank_account</t>
+          <t>cus_elig_sms_sent</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>cus_defa_acc_code</t>
+          <t>cus_insu_fee_flag</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>cus_elig_sms_sent</t>
+          <t>cus_pre_paid_flag</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>cus_insu_fee_flag</t>
+          <t>cus_comm_regi_numb</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>cus_pre_paid_flag</t>
+          <t>cus_corp_acti_type</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>cus_comm_regi_numb</t>
+          <t>cus_elig_refe_date</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>cus_corp_acti_type</t>
+          <t>cus_firs_iden_date</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>cus_elig_refe_date</t>
+          <t>cus_firs_iden_loca</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>cus_firs_iden_date</t>
+          <t>cus_firs_iden_typ1</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>cus_firs_iden_loca</t>
+          <t>cus_firs_iden_typ2</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>cus_firs_iden_typ1</t>
+          <t>cus_fisc_iden_numb</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>cus_firs_iden_typ2</t>
+          <t>cus_prin_stat_flag</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>cus_fisc_iden_numb</t>
+          <t>cus_seco_iden_date</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>cus_prin_stat_flag</t>
+          <t>cus_seco_iden_loca</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>cus_seco_iden_date</t>
+          <t>cus_seco_iden_typ1</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>cus_seco_iden_loca</t>
+          <t>cus_seco_iden_typ2</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>cus_seco_iden_typ1</t>
+          <t>cus_corp_legal_name</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>cus_seco_iden_typ2</t>
+          <t>cus_corp_legal_structure</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>cus_corp_legal_name</t>
+          <t>cus_corp_authorized_signatory</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>cus_corp_legal_structure</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>cus_corp_authorized_signatory</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>_airbyte_additional_properties</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>source_file_path</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>35623061-292f-424d-a2aa-bb5a0251a3f6</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A2" t="n">
+        <v>868340</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1000203809</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>868340</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1000203809</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
         <v>21</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5335</v>
+      </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
-        <v>5335</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>266</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>2023-03-23T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr">
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
@@ -1012,29 +986,29 @@
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>868340</t>
+        </is>
+      </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>868340</t>
+          <t>AMBIKA</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>AMBIKA</t>
-        </is>
+      <c r="BD2" t="n">
+        <v>0</v>
       </c>
       <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="n">
-        <v>0</v>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>SHAH</t>
+        </is>
       </c>
       <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>SHAH</t>
-        </is>
-      </c>
+      <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
@@ -1043,32 +1017,32 @@
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>2023-03-23T00:00:00.000000</t>
-        </is>
+      <c r="BS2" t="n">
+        <v>2233187</v>
       </c>
       <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="n">
-        <v>2233187</v>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
       <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="inlineStr"/>
       <c r="CG2" t="inlineStr"/>
@@ -1077,109 +1051,95 @@
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
-      <c r="CP2" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ2" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM2" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>e4078c20-66c3-498e-ba37-371feebcf2a4</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A3" t="n">
+        <v>911730</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1001246238</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>911730</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1001246238</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
         <v>21</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5424</v>
+      </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
-        <v>5424</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>266</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>2023-03-23T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr">
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
@@ -1187,29 +1147,29 @@
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>911730</t>
+        </is>
+      </c>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>911730</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>MINA</t>
-        </is>
+      <c r="BD3" t="n">
+        <v>0</v>
       </c>
       <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="n">
-        <v>0</v>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>KOIRALA</t>
+        </is>
       </c>
       <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>KOIRALA</t>
-        </is>
-      </c>
+      <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
@@ -1218,32 +1178,32 @@
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>2023-03-23T00:00:00.000000</t>
-        </is>
+      <c r="BS3" t="n">
+        <v>2316325</v>
       </c>
       <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="n">
-        <v>2316325</v>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr"/>
+      <c r="CB3" t="n">
+        <v>1</v>
+      </c>
       <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
       <c r="CG3" t="inlineStr"/>
@@ -1252,109 +1212,95 @@
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
       <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
-      <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
-      <c r="CP3" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ3" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM3" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3a504649-f5e1-4266-97ea-3d76e7823dcf</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A4" t="n">
+        <v>1021824</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1001342370</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1021824</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1001342370</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
         <v>21</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5188</v>
+      </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>5188</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>266</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
       <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>2023-03-23T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr">
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
@@ -1362,29 +1308,29 @@
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>1021824</t>
+        </is>
+      </c>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>1021824</t>
+          <t>BISHNU</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>BISHNU</t>
-        </is>
+      <c r="BD4" t="n">
+        <v>0</v>
       </c>
       <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="n">
-        <v>0</v>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>TIMSINA</t>
+        </is>
       </c>
       <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>TIMSINA</t>
-        </is>
-      </c>
+      <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
@@ -1393,32 +1339,32 @@
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>2023-03-23T00:00:00.000000</t>
-        </is>
+      <c r="BS4" t="n">
+        <v>1729784</v>
       </c>
       <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="n">
-        <v>1729784</v>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
       <c r="CA4" t="inlineStr"/>
-      <c r="CB4" t="inlineStr"/>
+      <c r="CB4" t="n">
+        <v>1</v>
+      </c>
       <c r="CC4" t="inlineStr"/>
-      <c r="CD4" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="inlineStr"/>
       <c r="CG4" t="inlineStr"/>
@@ -1427,109 +1373,95 @@
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
       <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="inlineStr"/>
-      <c r="CN4" t="inlineStr"/>
-      <c r="CO4" t="inlineStr"/>
-      <c r="CP4" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ4" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM4" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2ecaa87f-a437-4dfe-9352-852bb401436f</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A5" t="n">
+        <v>1071332</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1001385389</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1071332</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1001385389</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
         <v>21</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5236</v>
+      </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>5236</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>266</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>2023-03-23T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr">
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
@@ -1537,29 +1469,29 @@
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>1071332</t>
+        </is>
+      </c>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>1071332</t>
+          <t>BIRENDRA</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>BIRENDRA</t>
-        </is>
+      <c r="BD5" t="n">
+        <v>0</v>
       </c>
       <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="n">
-        <v>0</v>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>NEUPANE</t>
+        </is>
       </c>
       <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>NEUPANE</t>
-        </is>
-      </c>
+      <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
@@ -1568,32 +1500,32 @@
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>2023-03-23T00:00:00.000000</t>
-        </is>
+      <c r="BS5" t="n">
+        <v>1961143</v>
       </c>
       <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="n">
-        <v>1961143</v>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW5" t="inlineStr"/>
       <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="inlineStr"/>
+      <c r="CB5" t="n">
+        <v>1</v>
+      </c>
       <c r="CC5" t="inlineStr"/>
-      <c r="CD5" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="inlineStr"/>
       <c r="CF5" t="inlineStr"/>
       <c r="CG5" t="inlineStr"/>
@@ -1602,113 +1534,99 @@
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr"/>
-      <c r="CN5" t="inlineStr"/>
-      <c r="CO5" t="inlineStr"/>
-      <c r="CP5" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ5" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM5" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>342661ac-16c3-4202-9b1f-4d99715c31a9</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A6" t="n">
+        <v>1189793</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1007R00771966</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1189793</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1007R00771966</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
         <v>21</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5406</v>
+      </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>5406</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>266</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="n">
-        <v>0</v>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>1999-09-10T00:00:00.000000</t>
+        </is>
       </c>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>1999-09-10T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
       <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr">
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
@@ -1716,29 +1634,29 @@
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>1189793</t>
+        </is>
+      </c>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>1189793</t>
+          <t>AASTIK</t>
         </is>
       </c>
       <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr">
-        <is>
-          <t>AASTIK</t>
-        </is>
+      <c r="BD6" t="n">
+        <v>0</v>
       </c>
       <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="n">
-        <v>0</v>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>SAH</t>
+        </is>
       </c>
       <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>SAH</t>
-        </is>
-      </c>
+      <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
@@ -1747,32 +1665,32 @@
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS6" t="n">
+        <v>685879</v>
       </c>
       <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="n">
-        <v>685879</v>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW6" t="inlineStr"/>
       <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
       <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="inlineStr"/>
+      <c r="CB6" t="n">
+        <v>1</v>
+      </c>
       <c r="CC6" t="inlineStr"/>
-      <c r="CD6" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="inlineStr"/>
       <c r="CG6" t="inlineStr"/>
@@ -1781,109 +1699,95 @@
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
       <c r="CL6" t="inlineStr"/>
-      <c r="CM6" t="inlineStr"/>
-      <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr"/>
-      <c r="CP6" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ6" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM6" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>e2e0d438-072a-4975-970c-53cc353f7077</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A7" t="n">
+        <v>1251895</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1000469909</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1251895</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1000469909</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
         <v>21</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5482</v>
+      </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>5482</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>266</v>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr">
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
@@ -1891,29 +1795,29 @@
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>1251895</t>
+        </is>
+      </c>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>1251895</t>
+          <t>NAGINA</t>
         </is>
       </c>
       <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>NAGINA</t>
-        </is>
+      <c r="BD7" t="n">
+        <v>0</v>
       </c>
       <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="n">
-        <v>0</v>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>DEVI</t>
+        </is>
       </c>
       <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>DEVI</t>
-        </is>
-      </c>
+      <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
@@ -1922,32 +1826,32 @@
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS7" t="n">
+        <v>919185</v>
       </c>
       <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="n">
-        <v>919185</v>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW7" t="inlineStr"/>
       <c r="BX7" t="inlineStr"/>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
       <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr"/>
+      <c r="CB7" t="n">
+        <v>1</v>
+      </c>
       <c r="CC7" t="inlineStr"/>
-      <c r="CD7" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="inlineStr"/>
       <c r="CG7" t="inlineStr"/>
@@ -1956,109 +1860,95 @@
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
       <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
-      <c r="CN7" t="inlineStr"/>
-      <c r="CO7" t="inlineStr"/>
-      <c r="CP7" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ7" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM7" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>70ba87af-4895-4df8-9666-a3199cfd6eea</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A8" t="n">
+        <v>1282439</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1000385991</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>1282439</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1000385991</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
         <v>21</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5482</v>
+      </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>5482</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
-        <v>266</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
       <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr">
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
@@ -2066,29 +1956,29 @@
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>1282439</t>
+        </is>
+      </c>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>1282439</t>
+          <t>MANCHALI</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr">
-        <is>
-          <t>MANCHALI</t>
-        </is>
+      <c r="BD8" t="n">
+        <v>0</v>
       </c>
       <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="n">
-        <v>0</v>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>MAHARJAN</t>
+        </is>
       </c>
       <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>MAHARJAN</t>
-        </is>
-      </c>
+      <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
@@ -2097,32 +1987,32 @@
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS8" t="n">
+        <v>1096165</v>
       </c>
       <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="n">
-        <v>1096165</v>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW8" t="inlineStr"/>
       <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="inlineStr"/>
+      <c r="CB8" t="n">
+        <v>1</v>
+      </c>
       <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
       <c r="CF8" t="inlineStr"/>
       <c r="CG8" t="inlineStr"/>
@@ -2131,109 +2021,95 @@
       <c r="CJ8" t="inlineStr"/>
       <c r="CK8" t="inlineStr"/>
       <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
-      <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
-      <c r="CP8" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ8" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM8" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4ace8c6d-f25b-40ec-88cb-8c2ec5fc9313</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A9" t="n">
+        <v>1291988</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1000412908</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1291988</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1000412908</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
         <v>21</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5482</v>
+      </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>5482</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>266</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr">
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
@@ -2241,29 +2117,29 @@
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>1291988</t>
+        </is>
+      </c>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>1291988</t>
+          <t>KHIMANANDA</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr">
-        <is>
-          <t>KHIMANANDA</t>
-        </is>
+      <c r="BD9" t="n">
+        <v>0</v>
       </c>
       <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="n">
-        <v>0</v>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>GYAWALI</t>
+        </is>
       </c>
       <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>GYAWALI</t>
-        </is>
-      </c>
+      <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
@@ -2272,32 +2148,32 @@
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS9" t="n">
+        <v>979625</v>
       </c>
       <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="n">
-        <v>979625</v>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW9" t="inlineStr"/>
       <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="inlineStr"/>
+      <c r="CB9" t="n">
+        <v>1</v>
+      </c>
       <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
       <c r="CF9" t="inlineStr"/>
       <c r="CG9" t="inlineStr"/>
@@ -2306,109 +2182,95 @@
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr"/>
-      <c r="CP9" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ9" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM9" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>a337927f-785b-4016-9075-03ea0916d6b6</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A10" t="n">
+        <v>1303211</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1001516956</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>1303211</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1001516956</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
         <v>21</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5468</v>
+      </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>5468</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>266</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr">
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
@@ -2416,29 +2278,29 @@
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>1303211</t>
+        </is>
+      </c>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>1303211</t>
+          <t>JIBAN</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>JIBAN</t>
-        </is>
+      <c r="BD10" t="n">
+        <v>0</v>
       </c>
       <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="n">
-        <v>0</v>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>POUDEL</t>
+        </is>
       </c>
       <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>POUDEL</t>
-        </is>
-      </c>
+      <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
@@ -2447,32 +2309,32 @@
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS10" t="n">
+        <v>1760653</v>
       </c>
       <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="n">
-        <v>1760653</v>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW10" t="inlineStr"/>
       <c r="BX10" t="inlineStr"/>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
+      <c r="CB10" t="n">
+        <v>1</v>
+      </c>
       <c r="CC10" t="inlineStr"/>
-      <c r="CD10" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="inlineStr"/>
       <c r="CG10" t="inlineStr"/>
@@ -2481,109 +2343,95 @@
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
-      <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
-      <c r="CP10" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ10" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM10" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3324d623-7cd4-45df-9ab3-28c5514f65d0</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A11" t="n">
+        <v>1417237</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1001586650</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>1417237</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1001586650</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
         <v>21</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5266</v>
+      </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>5266</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>266</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr">
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
@@ -2591,29 +2439,29 @@
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>1417237</t>
+        </is>
+      </c>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>1417237</t>
+          <t>ANJITA</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>ANJITA</t>
-        </is>
+      <c r="BD11" t="n">
+        <v>0</v>
       </c>
       <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="n">
-        <v>0</v>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>SHRESTHA</t>
+        </is>
       </c>
       <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>SHRESTHA</t>
-        </is>
-      </c>
+      <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
@@ -2622,32 +2470,32 @@
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS11" t="n">
+        <v>1678396</v>
       </c>
       <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="n">
-        <v>1678396</v>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW11" t="inlineStr"/>
       <c r="BX11" t="inlineStr"/>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
       <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="inlineStr"/>
+      <c r="CB11" t="n">
+        <v>1</v>
+      </c>
       <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="inlineStr"/>
       <c r="CG11" t="inlineStr"/>
@@ -2656,109 +2504,95 @@
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
-      <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
-      <c r="CP11" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ11" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM11" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>fec5403d-fe42-4fd4-a2fd-3abedc45ad8e</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A12" t="n">
+        <v>1431295</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1001174600</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>1431295</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1001174600</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
         <v>21</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5227</v>
+      </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>5227</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>266</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
       <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr">
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
@@ -2766,29 +2600,29 @@
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>1431295</t>
+        </is>
+      </c>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>1431295</t>
+          <t>CHANDRA</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr">
-        <is>
-          <t>CHANDRA</t>
-        </is>
+      <c r="BD12" t="n">
+        <v>0</v>
       </c>
       <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="n">
-        <v>0</v>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>MAGAR</t>
+        </is>
       </c>
       <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>MAGAR</t>
-        </is>
-      </c>
+      <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
@@ -2797,32 +2631,32 @@
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS12" t="n">
+        <v>809273</v>
       </c>
       <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="n">
-        <v>809273</v>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV12" t="inlineStr"/>
-      <c r="BW12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW12" t="inlineStr"/>
       <c r="BX12" t="inlineStr"/>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
       <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="inlineStr"/>
+      <c r="CB12" t="n">
+        <v>1</v>
+      </c>
       <c r="CC12" t="inlineStr"/>
-      <c r="CD12" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr"/>
       <c r="CF12" t="inlineStr"/>
       <c r="CG12" t="inlineStr"/>
@@ -2831,109 +2665,95 @@
       <c r="CJ12" t="inlineStr"/>
       <c r="CK12" t="inlineStr"/>
       <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
-      <c r="CN12" t="inlineStr"/>
-      <c r="CO12" t="inlineStr"/>
-      <c r="CP12" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ12" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM12" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>e972834c-56a2-4556-b19f-d22278ae5cd8</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A13" t="n">
+        <v>1447942</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1000473137</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1447942</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1000473137</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
         <v>21</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5482</v>
+      </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>5482</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>266</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
       <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr">
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
@@ -2941,29 +2761,29 @@
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>1447942</t>
+        </is>
+      </c>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>1447942</t>
+          <t>MANCHALI</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr">
-        <is>
-          <t>MANCHALI</t>
-        </is>
+      <c r="BD13" t="n">
+        <v>0</v>
       </c>
       <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="n">
-        <v>0</v>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>MAHARJAN</t>
+        </is>
       </c>
       <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>MAHARJAN</t>
-        </is>
-      </c>
+      <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
@@ -2972,32 +2792,32 @@
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS13" t="n">
+        <v>885145</v>
       </c>
       <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="n">
-        <v>885145</v>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW13" t="inlineStr"/>
       <c r="BX13" t="inlineStr"/>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr"/>
+      <c r="CB13" t="n">
+        <v>1</v>
+      </c>
       <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr"/>
       <c r="CF13" t="inlineStr"/>
       <c r="CG13" t="inlineStr"/>
@@ -3006,109 +2826,95 @@
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
       <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
-      <c r="CP13" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ13" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM13" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>68b320bd-bf8b-492d-8577-d40140a18e5a</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A14" t="n">
+        <v>1448270</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1001608033</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>1448270</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1001608033</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
         <v>21</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5387</v>
+      </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>5387</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>266</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
       <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr">
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr"/>
@@ -3116,29 +2922,29 @@
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>1448270</t>
+        </is>
+      </c>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>1448270</t>
+          <t>SANTOSH</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>SANTOSH</t>
-        </is>
+      <c r="BD14" t="n">
+        <v>0</v>
       </c>
       <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="n">
-        <v>0</v>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>CHAUDHARY</t>
+        </is>
       </c>
       <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>CHAUDHARY</t>
-        </is>
-      </c>
+      <c r="BH14" t="inlineStr"/>
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
@@ -3147,32 +2953,32 @@
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
-      <c r="BQ14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS14" t="n">
+        <v>887451</v>
       </c>
       <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="n">
-        <v>887451</v>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW14" t="inlineStr"/>
       <c r="BX14" t="inlineStr"/>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="inlineStr"/>
-      <c r="CB14" t="inlineStr"/>
+      <c r="CB14" t="n">
+        <v>1</v>
+      </c>
       <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="inlineStr"/>
       <c r="CF14" t="inlineStr"/>
       <c r="CG14" t="inlineStr"/>
@@ -3181,109 +2987,95 @@
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
-      <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr"/>
-      <c r="CP14" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ14" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM14" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>397cdf8c-9954-45d8-b849-b3f8181855d0</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A15" t="n">
+        <v>1448846</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1001093604</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>1448846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1001093604</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
         <v>21</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5419</v>
+      </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>5419</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>266</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
       <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr">
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr"/>
@@ -3291,29 +3083,29 @@
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>1448846</t>
+        </is>
+      </c>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>1448846</t>
+          <t>SRIJANA</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>SRIJANA</t>
-        </is>
+      <c r="BD15" t="n">
+        <v>0</v>
       </c>
       <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="n">
-        <v>0</v>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>YADAV</t>
+        </is>
       </c>
       <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>YADAV</t>
-        </is>
-      </c>
+      <c r="BH15" t="inlineStr"/>
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
@@ -3322,32 +3114,32 @@
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS15" t="n">
+        <v>798551</v>
       </c>
       <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="n">
-        <v>798551</v>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW15" t="inlineStr"/>
       <c r="BX15" t="inlineStr"/>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="inlineStr"/>
+      <c r="CB15" t="n">
+        <v>1</v>
+      </c>
       <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="inlineStr"/>
       <c r="CF15" t="inlineStr"/>
       <c r="CG15" t="inlineStr"/>
@@ -3356,109 +3148,95 @@
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
-      <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr"/>
-      <c r="CP15" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ15" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM15" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>99853e2d-25f0-4b15-818e-409d79339bcd</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A16" t="n">
+        <v>1550076</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1001679298</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>1550076</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1001679298</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
         <v>21</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5273</v>
+      </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>5273</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>266</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
       <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr">
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
@@ -3466,29 +3244,29 @@
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>1550076</t>
+        </is>
+      </c>
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>1550076</t>
+          <t>RUPESH</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr">
-        <is>
-          <t>RUPESH</t>
-        </is>
+      <c r="BD16" t="n">
+        <v>0</v>
       </c>
       <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="n">
-        <v>0</v>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>DAS</t>
+        </is>
       </c>
       <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>DAS</t>
-        </is>
-      </c>
+      <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
@@ -3497,32 +3275,32 @@
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS16" t="n">
+        <v>798601</v>
       </c>
       <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="n">
-        <v>798601</v>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW16" t="inlineStr"/>
       <c r="BX16" t="inlineStr"/>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="inlineStr"/>
-      <c r="CB16" t="inlineStr"/>
+      <c r="CB16" t="n">
+        <v>1</v>
+      </c>
       <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="inlineStr"/>
       <c r="CF16" t="inlineStr"/>
       <c r="CG16" t="inlineStr"/>
@@ -3531,113 +3309,99 @@
       <c r="CJ16" t="inlineStr"/>
       <c r="CK16" t="inlineStr"/>
       <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
-      <c r="CP16" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ16" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM16" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>14d018a4-55a6-4f98-8348-5f1cacd095f2</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A17" t="n">
+        <v>1559410</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1007R01007045</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>1559410</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1007R01007045</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
         <v>21</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5186</v>
+      </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>5186</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>266</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>0</v>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>1966-04-13T00:00:00.000000</t>
+        </is>
       </c>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>1966-04-13T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
       <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr">
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
@@ -3645,29 +3409,29 @@
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>1559410</t>
+        </is>
+      </c>
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>1559410</t>
+          <t>NAIMODIN</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr">
-        <is>
-          <t>NAIMODIN</t>
-        </is>
+      <c r="BD17" t="n">
+        <v>0</v>
       </c>
       <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="n">
-        <v>0</v>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>MIYA</t>
+        </is>
       </c>
       <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>MIYA</t>
-        </is>
-      </c>
+      <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
@@ -3676,32 +3440,32 @@
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
-      <c r="BQ17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS17" t="n">
+        <v>1320952</v>
       </c>
       <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="n">
-        <v>1320952</v>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW17" t="inlineStr"/>
       <c r="BX17" t="inlineStr"/>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr"/>
+      <c r="CB17" t="n">
+        <v>1</v>
+      </c>
       <c r="CC17" t="inlineStr"/>
-      <c r="CD17" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD17" t="inlineStr"/>
       <c r="CE17" t="inlineStr"/>
       <c r="CF17" t="inlineStr"/>
       <c r="CG17" t="inlineStr"/>
@@ -3710,113 +3474,99 @@
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
-      <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
-      <c r="CP17" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ17" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM17" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>004989ff-34d6-4d4f-9b10-0ad07bb2bb24</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A18" t="n">
+        <v>1711130</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1007319749297</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>1711130</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1007319749297</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
         <v>21</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5289</v>
+      </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>5289</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>266</v>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>0</v>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>1988-02-17T00:00:00.000000</t>
+        </is>
       </c>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>1988-02-17T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
       <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr">
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
@@ -3824,29 +3574,29 @@
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>1711130</t>
+        </is>
+      </c>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>1711130</t>
+          <t>SHYAM</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr">
-        <is>
-          <t>SHYAM</t>
-        </is>
+      <c r="BD18" t="n">
+        <v>0</v>
       </c>
       <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="n">
-        <v>0</v>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>CHAUDHARY</t>
+        </is>
       </c>
       <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>CHAUDHARY</t>
-        </is>
-      </c>
+      <c r="BH18" t="inlineStr"/>
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
@@ -3855,32 +3605,32 @@
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS18" t="n">
+        <v>1249841</v>
       </c>
       <c r="BT18" t="inlineStr"/>
-      <c r="BU18" t="n">
-        <v>1249841</v>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV18" t="inlineStr"/>
-      <c r="BW18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW18" t="inlineStr"/>
       <c r="BX18" t="inlineStr"/>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="inlineStr"/>
+      <c r="CB18" t="n">
+        <v>1</v>
+      </c>
       <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="inlineStr"/>
       <c r="CF18" t="inlineStr"/>
       <c r="CG18" t="inlineStr"/>
@@ -3889,109 +3639,95 @@
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr"/>
-      <c r="CN18" t="inlineStr"/>
-      <c r="CO18" t="inlineStr"/>
-      <c r="CP18" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ18" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM18" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>e294b223-38a2-47b0-834d-ca3eda7c8422</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A19" t="n">
+        <v>1789419</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1000631489</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>1789419</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1000631489</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
         <v>21</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5150</v>
+      </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>5150</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>266</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
       <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr">
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
@@ -3999,29 +3735,29 @@
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>1789419</t>
+        </is>
+      </c>
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr">
         <is>
-          <t>1789419</t>
+          <t>ARJUN</t>
         </is>
       </c>
       <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr">
-        <is>
-          <t>ARJUN</t>
-        </is>
+      <c r="BD19" t="n">
+        <v>0</v>
       </c>
       <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="n">
-        <v>0</v>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>SHRESTHA</t>
+        </is>
       </c>
       <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>SHRESTHA</t>
-        </is>
-      </c>
+      <c r="BH19" t="inlineStr"/>
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="inlineStr"/>
@@ -4030,32 +3766,32 @@
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS19" t="n">
+        <v>1020535</v>
       </c>
       <c r="BT19" t="inlineStr"/>
-      <c r="BU19" t="n">
-        <v>1020535</v>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV19" t="inlineStr"/>
-      <c r="BW19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW19" t="inlineStr"/>
       <c r="BX19" t="inlineStr"/>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
       <c r="CA19" t="inlineStr"/>
-      <c r="CB19" t="inlineStr"/>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
       <c r="CC19" t="inlineStr"/>
-      <c r="CD19" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD19" t="inlineStr"/>
       <c r="CE19" t="inlineStr"/>
       <c r="CF19" t="inlineStr"/>
       <c r="CG19" t="inlineStr"/>
@@ -4064,113 +3800,99 @@
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
-      <c r="CN19" t="inlineStr"/>
-      <c r="CO19" t="inlineStr"/>
-      <c r="CP19" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ19" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM19" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>edbdb52d-4fa6-48cd-a086-470e918678d3</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A20" t="n">
+        <v>1814727</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10071R01651971</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>1814727</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>10071R01651971</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
         <v>21</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5273</v>
+      </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>5273</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>266</v>
-      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>0</v>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>1993-02-28T00:00:00.000000</t>
+        </is>
       </c>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>1993-02-28T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
       <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr">
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
@@ -4178,29 +3900,29 @@
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>1814727</t>
+        </is>
+      </c>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr">
         <is>
-          <t>1814727</t>
+          <t>BINOD</t>
         </is>
       </c>
       <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr">
-        <is>
-          <t>BINOD</t>
-        </is>
+      <c r="BD20" t="n">
+        <v>0</v>
       </c>
       <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="n">
-        <v>0</v>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>RAI</t>
+        </is>
       </c>
       <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr">
-        <is>
-          <t>RAI</t>
-        </is>
-      </c>
+      <c r="BH20" t="inlineStr"/>
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
@@ -4209,32 +3931,32 @@
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR20" t="inlineStr"/>
-      <c r="BS20" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS20" t="n">
+        <v>873023</v>
       </c>
       <c r="BT20" t="inlineStr"/>
-      <c r="BU20" t="n">
-        <v>873023</v>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV20" t="inlineStr"/>
-      <c r="BW20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW20" t="inlineStr"/>
       <c r="BX20" t="inlineStr"/>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
       <c r="CA20" t="inlineStr"/>
-      <c r="CB20" t="inlineStr"/>
+      <c r="CB20" t="n">
+        <v>1</v>
+      </c>
       <c r="CC20" t="inlineStr"/>
-      <c r="CD20" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="inlineStr"/>
       <c r="CF20" t="inlineStr"/>
       <c r="CG20" t="inlineStr"/>
@@ -4243,113 +3965,99 @@
       <c r="CJ20" t="inlineStr"/>
       <c r="CK20" t="inlineStr"/>
       <c r="CL20" t="inlineStr"/>
-      <c r="CM20" t="inlineStr"/>
-      <c r="CN20" t="inlineStr"/>
-      <c r="CO20" t="inlineStr"/>
-      <c r="CP20" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ20" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM20" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>04ed9347-568c-491f-928b-d3eefd768da6</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A21" t="n">
+        <v>1949098</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1007R01562055</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>1949098</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1007R01562055</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
         <v>21</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5313</v>
+      </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>5313</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>266</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>0</v>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>1989-11-25T00:00:00.000000</t>
+        </is>
       </c>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>1989-11-25T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
       <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr">
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
@@ -4357,29 +4065,29 @@
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>1949098</t>
+        </is>
+      </c>
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr">
         <is>
-          <t>1949098</t>
+          <t>PRABAL</t>
         </is>
       </c>
       <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr">
-        <is>
-          <t>PRABAL</t>
-        </is>
+      <c r="BD21" t="n">
+        <v>0</v>
       </c>
       <c r="BE21" t="inlineStr"/>
-      <c r="BF21" t="n">
-        <v>0</v>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>ARYAL</t>
+        </is>
       </c>
       <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr">
-        <is>
-          <t>ARYAL</t>
-        </is>
-      </c>
+      <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
@@ -4388,32 +4096,32 @@
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
-      <c r="BQ21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>2023-03-24T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="inlineStr">
-        <is>
-          <t>2023-03-24T00:00:00.000000</t>
-        </is>
+      <c r="BS21" t="n">
+        <v>1404407</v>
       </c>
       <c r="BT21" t="inlineStr"/>
-      <c r="BU21" t="n">
-        <v>1404407</v>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV21" t="inlineStr"/>
-      <c r="BW21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW21" t="inlineStr"/>
       <c r="BX21" t="inlineStr"/>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="inlineStr"/>
-      <c r="CB21" t="inlineStr"/>
+      <c r="CB21" t="n">
+        <v>1</v>
+      </c>
       <c r="CC21" t="inlineStr"/>
-      <c r="CD21" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD21" t="inlineStr"/>
       <c r="CE21" t="inlineStr"/>
       <c r="CF21" t="inlineStr"/>
       <c r="CG21" t="inlineStr"/>
@@ -4422,109 +4130,95 @@
       <c r="CJ21" t="inlineStr"/>
       <c r="CK21" t="inlineStr"/>
       <c r="CL21" t="inlineStr"/>
-      <c r="CM21" t="inlineStr"/>
-      <c r="CN21" t="inlineStr"/>
-      <c r="CO21" t="inlineStr"/>
-      <c r="CP21" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ21" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM21" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>51f52919-c37b-4202-a243-14c65125351a</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A22" t="n">
+        <v>2032763</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1000801923</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>2032763</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1000801923</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
         <v>21</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5295</v>
+      </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>5295</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>266</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
       <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>2023-03-25T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>2023-03-25T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr">
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
@@ -4532,29 +4226,29 @@
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>2032763</t>
+        </is>
+      </c>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr">
         <is>
-          <t>2032763</t>
+          <t>TRISHANA</t>
         </is>
       </c>
       <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr">
-        <is>
-          <t>TRISHANA</t>
-        </is>
+      <c r="BD22" t="n">
+        <v>0</v>
       </c>
       <c r="BE22" t="inlineStr"/>
-      <c r="BF22" t="n">
-        <v>0</v>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>BASNET</t>
+        </is>
       </c>
       <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr">
-        <is>
-          <t>BASNET</t>
-        </is>
-      </c>
+      <c r="BH22" t="inlineStr"/>
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
@@ -4563,32 +4257,32 @@
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>2023-03-25T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR22" t="inlineStr"/>
-      <c r="BS22" t="inlineStr">
-        <is>
-          <t>2023-03-25T00:00:00.000000</t>
-        </is>
+      <c r="BS22" t="n">
+        <v>1459463</v>
       </c>
       <c r="BT22" t="inlineStr"/>
-      <c r="BU22" t="n">
-        <v>1459463</v>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW22" t="inlineStr"/>
       <c r="BX22" t="inlineStr"/>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
       <c r="CA22" t="inlineStr"/>
-      <c r="CB22" t="inlineStr"/>
+      <c r="CB22" t="n">
+        <v>1</v>
+      </c>
       <c r="CC22" t="inlineStr"/>
-      <c r="CD22" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="inlineStr"/>
       <c r="CF22" t="inlineStr"/>
       <c r="CG22" t="inlineStr"/>
@@ -4597,109 +4291,95 @@
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
-      <c r="CM22" t="inlineStr"/>
-      <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="inlineStr"/>
-      <c r="CP22" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ22" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM22" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>6c097ac3-c18c-4fba-acde-100d40751a8c</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A23" t="n">
+        <v>2159451</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1002047338</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>2159451</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1002047338</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
         <v>21</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5188</v>
+      </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>5188</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
-        <v>266</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
       <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>2023-03-25T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>2023-03-25T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr">
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
@@ -4707,29 +4387,29 @@
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>2159451</t>
+        </is>
+      </c>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr">
         <is>
-          <t>2159451</t>
+          <t>KAMAL</t>
         </is>
       </c>
       <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="inlineStr">
-        <is>
-          <t>KAMAL</t>
-        </is>
+      <c r="BD23" t="n">
+        <v>0</v>
       </c>
       <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="n">
-        <v>0</v>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>GURUNG</t>
+        </is>
       </c>
       <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr">
-        <is>
-          <t>GURUNG</t>
-        </is>
-      </c>
+      <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
@@ -4738,32 +4418,32 @@
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
-      <c r="BQ23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>2023-03-25T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="inlineStr">
-        <is>
-          <t>2023-03-25T00:00:00.000000</t>
-        </is>
+      <c r="BS23" t="n">
+        <v>1847208</v>
       </c>
       <c r="BT23" t="inlineStr"/>
-      <c r="BU23" t="n">
-        <v>1847208</v>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV23" t="inlineStr"/>
-      <c r="BW23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW23" t="inlineStr"/>
       <c r="BX23" t="inlineStr"/>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
       <c r="CA23" t="inlineStr"/>
-      <c r="CB23" t="inlineStr"/>
+      <c r="CB23" t="n">
+        <v>1</v>
+      </c>
       <c r="CC23" t="inlineStr"/>
-      <c r="CD23" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="inlineStr"/>
       <c r="CF23" t="inlineStr"/>
       <c r="CG23" t="inlineStr"/>
@@ -4772,113 +4452,99 @@
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
-      <c r="CM23" t="inlineStr"/>
-      <c r="CN23" t="inlineStr"/>
-      <c r="CO23" t="inlineStr"/>
-      <c r="CP23" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ23" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM23" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>f78657d2-cdfa-4a71-9da8-9d7b7b4a328d</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A24" t="n">
+        <v>2161658</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1007R01731860</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>2161658</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1007R01731860</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
         <v>21</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5188</v>
+      </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>5188</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
-        <v>266</v>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
       <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="n">
-        <v>0</v>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>1979-03-03T00:00:00.000000</t>
+        </is>
       </c>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>1979-03-03T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
       <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>2023-03-25T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr">
-        <is>
-          <t>2023-03-25T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr">
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
@@ -4886,29 +4552,29 @@
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>2161658</t>
+        </is>
+      </c>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr">
         <is>
-          <t>2161658</t>
+          <t>GANESH</t>
         </is>
       </c>
       <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr">
-        <is>
-          <t>GANESH</t>
-        </is>
+      <c r="BD24" t="n">
+        <v>0</v>
       </c>
       <c r="BE24" t="inlineStr"/>
-      <c r="BF24" t="n">
-        <v>0</v>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>SHIWAKOTI</t>
+        </is>
       </c>
       <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr">
-        <is>
-          <t>SHIWAKOTI</t>
-        </is>
-      </c>
+      <c r="BH24" t="inlineStr"/>
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="inlineStr"/>
@@ -4917,32 +4583,32 @@
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>2023-03-25T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR24" t="inlineStr"/>
-      <c r="BS24" t="inlineStr">
-        <is>
-          <t>2023-03-25T00:00:00.000000</t>
-        </is>
+      <c r="BS24" t="n">
+        <v>1478359</v>
       </c>
       <c r="BT24" t="inlineStr"/>
-      <c r="BU24" t="n">
-        <v>1478359</v>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV24" t="inlineStr"/>
-      <c r="BW24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW24" t="inlineStr"/>
       <c r="BX24" t="inlineStr"/>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
       <c r="CA24" t="inlineStr"/>
-      <c r="CB24" t="inlineStr"/>
+      <c r="CB24" t="n">
+        <v>1</v>
+      </c>
       <c r="CC24" t="inlineStr"/>
-      <c r="CD24" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD24" t="inlineStr"/>
       <c r="CE24" t="inlineStr"/>
       <c r="CF24" t="inlineStr"/>
       <c r="CG24" t="inlineStr"/>
@@ -4951,113 +4617,99 @@
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
-      <c r="CM24" t="inlineStr"/>
-      <c r="CN24" t="inlineStr"/>
-      <c r="CO24" t="inlineStr"/>
-      <c r="CP24" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ24" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM24" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4693100c-439e-4c33-a8a1-58f5e919be5a</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A25" t="n">
+        <v>2364531</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1007R00587212</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>2364531</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1007R00587212</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
         <v>21</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5328</v>
+      </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="n">
-        <v>5328</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
-        <v>266</v>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="n">
-        <v>0</v>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>1991-01-01T00:00:00.000000</t>
+        </is>
       </c>
       <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>1991-01-01T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
       <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
+      <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>2023-03-25T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>2023-03-25T00:00:00.000000</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr">
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
@@ -5065,67 +4717,65 @@
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>2364531</t>
+        </is>
+      </c>
       <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="inlineStr">
         <is>
-          <t>2364531</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr">
-        <is>
-          <t>BB</t>
-        </is>
+      <c r="BD25" t="n">
+        <v>0</v>
       </c>
       <c r="BE25" t="inlineStr"/>
-      <c r="BF25" t="n">
-        <v>0</v>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
       </c>
       <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
+      <c r="BH25" t="inlineStr"/>
       <c r="BI25" t="inlineStr"/>
       <c r="BJ25" t="inlineStr"/>
-      <c r="BK25" t="inlineStr"/>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
       <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr">
-        <is>
-          <t>0000000000</t>
-        </is>
-      </c>
+      <c r="BM25" t="inlineStr"/>
       <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
-      <c r="BQ25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>2023-03-25T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="BR25" t="inlineStr"/>
-      <c r="BS25" t="inlineStr">
-        <is>
-          <t>2023-03-25T00:00:00.000000</t>
-        </is>
+      <c r="BS25" t="n">
+        <v>2037346</v>
       </c>
       <c r="BT25" t="inlineStr"/>
-      <c r="BU25" t="n">
-        <v>2037346</v>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="BV25" t="inlineStr"/>
-      <c r="BW25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW25" t="inlineStr"/>
       <c r="BX25" t="inlineStr"/>
       <c r="BY25" t="inlineStr"/>
       <c r="BZ25" t="inlineStr"/>
       <c r="CA25" t="inlineStr"/>
-      <c r="CB25" t="inlineStr"/>
+      <c r="CB25" t="n">
+        <v>1</v>
+      </c>
       <c r="CC25" t="inlineStr"/>
-      <c r="CD25" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD25" t="inlineStr"/>
       <c r="CE25" t="inlineStr"/>
       <c r="CF25" t="inlineStr"/>
       <c r="CG25" t="inlineStr"/>
@@ -5134,57 +4784,43 @@
       <c r="CJ25" t="inlineStr"/>
       <c r="CK25" t="inlineStr"/>
       <c r="CL25" t="inlineStr"/>
-      <c r="CM25" t="inlineStr"/>
-      <c r="CN25" t="inlineStr"/>
-      <c r="CO25" t="inlineStr"/>
-      <c r="CP25" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ25" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM25" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>4ee81c82-352f-48f7-889e-899ddc49f850</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A26" t="n">
+        <v>2507599</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0010070099I0002507599</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>2507599</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0010070099I0002507599</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
         <v>21</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5199</v>
+      </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K26" t="n">
-        <v>5199</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -5199,122 +4835,120 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>1951-01-31T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>1951-01-31T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AS26" t="inlineStr">
-        <is>
           <t>GOVIND_N_SHARMA@HOTMAIL.CO.UK</t>
         </is>
       </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr">
         <is>
-          <t>Null</t>
+          <t>GOVIND</t>
         </is>
       </c>
       <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr">
-        <is>
-          <t>GOVIND</t>
-        </is>
-      </c>
+      <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
-      <c r="BF26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>SHARMA</t>
+        </is>
+      </c>
       <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>SHARMA</t>
-        </is>
-      </c>
-      <c r="BI26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>NARAYAN</t>
+        </is>
+      </c>
       <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="inlineStr">
-        <is>
-          <t>NARAYAN</t>
-        </is>
+      <c r="BK26" t="n">
+        <v>9861829980</v>
       </c>
       <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="inlineStr">
-        <is>
-          <t>9861829980</t>
-        </is>
-      </c>
+      <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
-      <c r="BS26" t="inlineStr"/>
+      <c r="BS26" t="n">
+        <v>2438638</v>
+      </c>
       <c r="BT26" t="inlineStr"/>
-      <c r="BU26" t="n">
-        <v>2438638</v>
-      </c>
-      <c r="BV26" t="inlineStr"/>
-      <c r="BW26" t="inlineStr">
+      <c r="BU26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BX26" t="inlineStr">
+      <c r="BV26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
       <c r="BY26" t="inlineStr"/>
       <c r="BZ26" t="inlineStr"/>
       <c r="CA26" t="inlineStr"/>
-      <c r="CB26" t="inlineStr"/>
+      <c r="CB26" t="n">
+        <v>1</v>
+      </c>
       <c r="CC26" t="inlineStr"/>
-      <c r="CD26" t="n">
-        <v>1</v>
-      </c>
+      <c r="CD26" t="inlineStr"/>
       <c r="CE26" t="inlineStr"/>
       <c r="CF26" t="inlineStr"/>
       <c r="CG26" t="inlineStr"/>
@@ -5323,57 +4957,43 @@
       <c r="CJ26" t="inlineStr"/>
       <c r="CK26" t="inlineStr"/>
       <c r="CL26" t="inlineStr"/>
-      <c r="CM26" t="inlineStr"/>
-      <c r="CN26" t="inlineStr"/>
-      <c r="CO26" t="inlineStr"/>
-      <c r="CP26" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ26" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM26" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>3968cf45-006b-45d5-9af8-fa0abb52e773</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A27" t="n">
+        <v>2624525</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0010070099I0002624525</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>2624525</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0010070099I0002624525</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
         <v>21</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5199</v>
+      </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>5199</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -5388,118 +5008,116 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>1970-01-01T00:00:00.000000</t>
+        </is>
+      </c>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>1970-01-01T00:00:00.000000</t>
-        </is>
-      </c>
+      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AS27" t="inlineStr">
-        <is>
           <t>testnic@nicasia.com</t>
         </is>
       </c>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>2624525</t>
+        </is>
+      </c>
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr">
         <is>
-          <t>2624525</t>
+          <t>KHIMANANDA</t>
         </is>
       </c>
       <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr">
-        <is>
-          <t>KHIMANANDA</t>
-        </is>
-      </c>
+      <c r="BD27" t="inlineStr"/>
       <c r="BE27" t="inlineStr"/>
-      <c r="BF27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>GYAWALI</t>
+        </is>
+      </c>
       <c r="BG27" t="inlineStr"/>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>GYAWALI</t>
-        </is>
-      </c>
+      <c r="BH27" t="inlineStr"/>
       <c r="BI27" t="inlineStr"/>
       <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="inlineStr"/>
+      <c r="BK27" t="n">
+        <v>9860776051</v>
+      </c>
       <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr">
-        <is>
-          <t>9860776051</t>
-        </is>
-      </c>
+      <c r="BM27" t="inlineStr"/>
       <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
-      <c r="BS27" t="inlineStr"/>
+      <c r="BS27" t="n">
+        <v>2555084</v>
+      </c>
       <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="n">
-        <v>2555084</v>
-      </c>
-      <c r="BV27" t="inlineStr"/>
-      <c r="BW27" t="inlineStr">
+      <c r="BU27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BX27" t="inlineStr">
+      <c r="BV27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
       <c r="BY27" t="inlineStr"/>
       <c r="BZ27" t="inlineStr"/>
       <c r="CA27" t="inlineStr"/>
-      <c r="CB27" t="inlineStr"/>
+      <c r="CB27" t="n">
+        <v>9</v>
+      </c>
       <c r="CC27" t="inlineStr"/>
-      <c r="CD27" t="n">
-        <v>9</v>
-      </c>
+      <c r="CD27" t="inlineStr"/>
       <c r="CE27" t="inlineStr"/>
       <c r="CF27" t="inlineStr"/>
       <c r="CG27" t="inlineStr"/>
@@ -5508,70 +5126,56 @@
       <c r="CJ27" t="inlineStr"/>
       <c r="CK27" t="inlineStr"/>
       <c r="CL27" t="inlineStr"/>
-      <c r="CM27" t="inlineStr"/>
-      <c r="CN27" t="inlineStr"/>
-      <c r="CO27" t="inlineStr"/>
-      <c r="CP27" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ27" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM27" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>e34ec0dc-6c47-4dfc-bbe0-7087c0cbac7b</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>45510.3079196875</v>
+      <c r="A28" t="n">
+        <v>2688564</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R02275983</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>2688564</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>R02275983</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
-      </c>
-      <c r="G28" t="n">
         <v>21</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5485</v>
+      </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="K28" t="n">
-        <v>5485</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
         <v>266</v>
       </c>
-      <c r="O28" t="n">
+      <c r="M28" t="n">
         <v>266</v>
       </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -5581,158 +5185,146 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="n">
-        <v>0</v>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2020-08-07T00:00:00.000000</t>
+        </is>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2020-08-07T00:00:00.000000</t>
+          <t>SYANGBOCHE</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>SYANGBOCHE</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AR28" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="AS28" t="inlineStr">
-        <is>
           <t>CHHETRISIRJU1994@GMAIL.COM</t>
         </is>
       </c>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>2077042301248</t>
+        </is>
+      </c>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr">
         <is>
-          <t>2077042301248</t>
+          <t>DIWANSHI</t>
         </is>
       </c>
       <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="inlineStr">
-        <is>
-          <t>DIWANSHI</t>
-        </is>
-      </c>
+      <c r="BD28" t="inlineStr"/>
       <c r="BE28" t="inlineStr"/>
-      <c r="BF28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>MAHAT</t>
+        </is>
+      </c>
       <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="inlineStr">
-        <is>
-          <t>MAHAT</t>
-        </is>
-      </c>
+      <c r="BH28" t="inlineStr"/>
       <c r="BI28" t="inlineStr"/>
       <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="inlineStr"/>
+      <c r="BK28" t="n">
+        <v>9869212111</v>
+      </c>
       <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="inlineStr">
-        <is>
-          <t>9869212111</t>
-        </is>
+      <c r="BM28" t="n">
+        <v>9869212111</v>
       </c>
       <c r="BN28" t="inlineStr"/>
-      <c r="BO28" t="inlineStr">
-        <is>
-          <t>9869212111</t>
-        </is>
-      </c>
+      <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
-      <c r="BQ28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>2023-11-03T14:40:23</t>
+        </is>
+      </c>
       <c r="BR28" t="inlineStr"/>
-      <c r="BS28" t="inlineStr">
-        <is>
-          <t>2023-11-03T14:40:23</t>
-        </is>
+      <c r="BS28" t="n">
+        <v>2620002</v>
       </c>
       <c r="BT28" t="inlineStr"/>
-      <c r="BU28" t="n">
-        <v>2620002</v>
-      </c>
-      <c r="BV28" t="inlineStr"/>
-      <c r="BW28" t="inlineStr">
+      <c r="BU28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BX28" t="inlineStr">
+      <c r="BV28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
+      <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
       <c r="BY28" t="inlineStr"/>
       <c r="BZ28" t="inlineStr"/>
       <c r="CA28" t="inlineStr"/>
-      <c r="CB28" t="inlineStr"/>
-      <c r="CC28" t="inlineStr"/>
-      <c r="CD28" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE28" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD28" t="inlineStr"/>
+      <c r="CE28" t="inlineStr"/>
       <c r="CF28" t="inlineStr"/>
       <c r="CG28" t="inlineStr"/>
-      <c r="CH28" t="inlineStr"/>
-      <c r="CI28" t="inlineStr"/>
-      <c r="CJ28" t="n">
+      <c r="CH28" t="n">
         <v>10</v>
       </c>
-      <c r="CK28" t="n">
+      <c r="CI28" t="n">
         <v>10</v>
       </c>
+      <c r="CJ28" t="inlineStr"/>
+      <c r="CK28" t="inlineStr"/>
       <c r="CL28" t="inlineStr"/>
-      <c r="CM28" t="inlineStr"/>
-      <c r="CN28" t="inlineStr"/>
-      <c r="CO28" t="inlineStr"/>
-      <c r="CP28" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="CQ28" s="2" t="n">
-        <v>45511.29479166259</v>
+      <c r="CM28" s="2" t="n">
+        <v>45511.29479166667</v>
       </c>
     </row>
   </sheetData>

--- a/cards/customer_cardholder/customer_cardholder.xlsx
+++ b/cards/customer_cardholder/customer_cardholder.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM28"/>
+  <dimension ref="A1:CQ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,545 +440,571 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>cus_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>cus_iden</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cus_tit1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cus_tit2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cus_type</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cus_gend1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cus_gend2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>cus_ban_code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cus_bra_code</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cus_ccs_code</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cus_corp_dba</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>cus_cou_cod1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>cus_cou_cod2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>cus_csr_code</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>cus_cup_code</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>cus_mst_cod1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>cus_mst_cod2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>cus_net_sal1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>cus_net_sal2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>cus_ppo_cod1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>cus_ppo_cod2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>cus_pro_code</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>cus_slb_code</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>cus_tax_numb</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>cus_vca_code</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>cus_beha_scor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>cus_birt_dat1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>cus_birt_dat2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>cus_birt_loc1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>cus_birt_loc2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>cus_capi_amou</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cus_char_flag</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>cus_chld_num1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>cus_chld_num2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>cus_cnss_numb</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>cus_comp_type</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>cus_corp_name</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>cus_crea_date</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>cus_cred_flag</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>cus_cust_pare</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>cus_debi_flag</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>cus_deli_meth</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>cus_email_adr</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>cus_empl_age1</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>cus_empl_age2</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>cus_empl_cod1</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>cus_empl_cod2</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>cus_empl_nam1</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>cus_empl_nam2</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>cus_ense_name</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>cus_file_numb</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>cus_firs_ide1</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>cus_firs_ide2</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>cus_firs_nam1</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>cus_firs_nam2</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>cus_gros_sal1</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>cus_gros_sal2</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>cus_last_nam1</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>cus_last_nam2</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>cus_lice_numb</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>cus_midd_nam1</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>cus_midd_nam2</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>cus_phon_numb</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>cus_scor_resu</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>cus_seco_ide1</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>cus_seco_ide2</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>cus_sire_numb</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>cus_site_type</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>cus_stat_date</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>cus_bank_account</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>cus_defa_acc_code</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>cus_elig_sms_sent</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>cus_insu_fee_flag</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>cus_pre_paid_flag</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>cus_comm_regi_numb</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>cus_corp_acti_type</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>cus_elig_refe_date</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>cus_firs_iden_date</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>cus_firs_iden_loca</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>cus_firs_iden_typ1</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>cus_firs_iden_typ2</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>cus_fisc_iden_numb</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>cus_prin_stat_flag</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>cus_seco_iden_date</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>cus_seco_iden_loca</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>cus_seco_iden_typ1</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>cus_seco_iden_typ2</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>cus_corp_legal_name</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>cus_corp_legal_structure</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>cus_corp_authorized_signatory</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>35623061-292f-424d-a2aa-bb5a0251a3f6</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="n">
         <v>868340</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1000203809</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>21</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>5335</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>266</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr">
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr">
         <is>
           <t>2023-03-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr">
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
@@ -986,29 +1012,29 @@
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>868340</t>
-        </is>
-      </c>
+      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr">
         <is>
+          <t>868340</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr">
+        <is>
           <t>AMBIKA</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
       <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr">
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr">
         <is>
           <t>SHAH</t>
         </is>
       </c>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
@@ -1017,32 +1043,32 @@
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr">
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr">
         <is>
           <t>2023-03-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="n">
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="n">
         <v>2233187</v>
       </c>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr">
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB2" t="inlineStr"/>
       <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr"/>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="inlineStr"/>
       <c r="CG2" t="inlineStr"/>
@@ -1051,95 +1077,109 @@
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr"/>
-      <c r="CM2" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ2" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>e4078c20-66c3-498e-ba37-371feebcf2a4</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="n">
         <v>911730</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1001246238</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>21</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>5424</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>266</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr">
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr">
         <is>
           <t>2023-03-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr">
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
@@ -1147,29 +1187,29 @@
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>911730</t>
-        </is>
-      </c>
+      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr">
         <is>
+          <t>911730</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr">
+        <is>
           <t>MINA</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
       <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr">
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr">
         <is>
           <t>KOIRALA</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
@@ -1178,32 +1218,32 @@
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr">
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr">
         <is>
           <t>2023-03-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="n">
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="n">
         <v>2316325</v>
       </c>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr">
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB3" t="inlineStr"/>
       <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr"/>
+      <c r="CD3" t="n">
+        <v>1</v>
+      </c>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
       <c r="CG3" t="inlineStr"/>
@@ -1212,95 +1252,109 @@
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
       <c r="CL3" t="inlineStr"/>
-      <c r="CM3" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ3" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3a504649-f5e1-4266-97ea-3d76e7823dcf</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="n">
         <v>1021824</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1001342370</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>21</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>5188</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>266</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr">
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>2023-03-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr">
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
@@ -1308,29 +1362,29 @@
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>1021824</t>
-        </is>
-      </c>
+      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr">
         <is>
+          <t>1021824</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr">
+        <is>
           <t>BISHNU</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
       <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr">
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr">
         <is>
           <t>TIMSINA</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
@@ -1339,32 +1393,32 @@
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr">
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr">
         <is>
           <t>2023-03-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="n">
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="n">
         <v>1729784</v>
       </c>
-      <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="inlineStr">
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
       <c r="CA4" t="inlineStr"/>
-      <c r="CB4" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB4" t="inlineStr"/>
       <c r="CC4" t="inlineStr"/>
-      <c r="CD4" t="inlineStr"/>
+      <c r="CD4" t="n">
+        <v>1</v>
+      </c>
       <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="inlineStr"/>
       <c r="CG4" t="inlineStr"/>
@@ -1373,95 +1427,109 @@
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
       <c r="CL4" t="inlineStr"/>
-      <c r="CM4" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ4" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2ecaa87f-a437-4dfe-9352-852bb401436f</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="n">
         <v>1071332</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1001385389</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>21</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>5236</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>266</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr">
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr">
         <is>
           <t>2023-03-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr">
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
@@ -1469,29 +1537,29 @@
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>1071332</t>
-        </is>
-      </c>
+      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr">
         <is>
+          <t>1071332</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr">
+        <is>
           <t>BIRENDRA</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
       <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr">
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr">
         <is>
           <t>NEUPANE</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
@@ -1500,32 +1568,32 @@
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr">
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr">
         <is>
           <t>2023-03-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="n">
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="n">
         <v>1961143</v>
       </c>
-      <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="inlineStr">
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
       <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB5" t="inlineStr"/>
       <c r="CC5" t="inlineStr"/>
-      <c r="CD5" t="inlineStr"/>
+      <c r="CD5" t="n">
+        <v>1</v>
+      </c>
       <c r="CE5" t="inlineStr"/>
       <c r="CF5" t="inlineStr"/>
       <c r="CG5" t="inlineStr"/>
@@ -1534,99 +1602,113 @@
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
-      <c r="CM5" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ5" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>342661ac-16c3-4202-9b1f-4d99715c31a9</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="n">
         <v>1189793</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>1007R00771966</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
         <v>21</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
         <v>5406</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>266</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>1999-09-10T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr">
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr">
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
@@ -1634,29 +1716,29 @@
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>1189793</t>
-        </is>
-      </c>
+      <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr">
         <is>
+          <t>1189793</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr">
+        <is>
           <t>AASTIK</t>
         </is>
       </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
       <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr">
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr">
         <is>
           <t>SAH</t>
         </is>
       </c>
-      <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
@@ -1665,32 +1747,32 @@
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr">
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="n">
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="n">
         <v>685879</v>
       </c>
-      <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr">
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
       <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
       <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB6" t="inlineStr"/>
       <c r="CC6" t="inlineStr"/>
-      <c r="CD6" t="inlineStr"/>
+      <c r="CD6" t="n">
+        <v>1</v>
+      </c>
       <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="inlineStr"/>
       <c r="CG6" t="inlineStr"/>
@@ -1699,95 +1781,109 @@
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
       <c r="CL6" t="inlineStr"/>
-      <c r="CM6" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ6" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>e2e0d438-072a-4975-970c-53cc353f7077</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="n">
         <v>1251895</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>1000469909</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>21</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
         <v>5482</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>266</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr">
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr">
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
@@ -1795,29 +1891,29 @@
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>1251895</t>
-        </is>
-      </c>
+      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr">
         <is>
+          <t>1251895</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr">
+        <is>
           <t>NAGINA</t>
         </is>
       </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
       <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="inlineStr">
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr">
         <is>
           <t>DEVI</t>
         </is>
       </c>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
@@ -1826,32 +1922,32 @@
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr">
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="n">
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="n">
         <v>919185</v>
       </c>
-      <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr">
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr"/>
       <c r="BX7" t="inlineStr"/>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
       <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB7" t="inlineStr"/>
       <c r="CC7" t="inlineStr"/>
-      <c r="CD7" t="inlineStr"/>
+      <c r="CD7" t="n">
+        <v>1</v>
+      </c>
       <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="inlineStr"/>
       <c r="CG7" t="inlineStr"/>
@@ -1860,95 +1956,109 @@
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
       <c r="CL7" t="inlineStr"/>
-      <c r="CM7" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ7" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>70ba87af-4895-4df8-9666-a3199cfd6eea</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="n">
         <v>1282439</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1000385991</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>21</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>5482</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>266</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr">
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr">
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
@@ -1956,29 +2066,29 @@
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>1282439</t>
-        </is>
-      </c>
+      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr">
         <is>
+          <t>1282439</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr">
+        <is>
           <t>MANCHALI</t>
         </is>
       </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
       <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr">
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr">
         <is>
           <t>MAHARJAN</t>
         </is>
       </c>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
@@ -1987,32 +2097,32 @@
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr">
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="n">
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="n">
         <v>1096165</v>
       </c>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr">
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
       <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB8" t="inlineStr"/>
       <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="inlineStr"/>
+      <c r="CD8" t="n">
+        <v>1</v>
+      </c>
       <c r="CE8" t="inlineStr"/>
       <c r="CF8" t="inlineStr"/>
       <c r="CG8" t="inlineStr"/>
@@ -2021,95 +2131,109 @@
       <c r="CJ8" t="inlineStr"/>
       <c r="CK8" t="inlineStr"/>
       <c r="CL8" t="inlineStr"/>
-      <c r="CM8" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ8" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4ace8c6d-f25b-40ec-88cb-8c2ec5fc9313</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="n">
         <v>1291988</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1000412908</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
         <v>21</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>5482</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>266</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr">
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr">
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
@@ -2117,29 +2241,29 @@
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>1291988</t>
-        </is>
-      </c>
+      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr">
         <is>
+          <t>1291988</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr">
+        <is>
           <t>KHIMANANDA</t>
         </is>
       </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
       <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr">
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr">
         <is>
           <t>GYAWALI</t>
         </is>
       </c>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
@@ -2148,32 +2272,32 @@
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr">
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="n">
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="n">
         <v>979625</v>
       </c>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr">
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
       <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB9" t="inlineStr"/>
       <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="inlineStr"/>
+      <c r="CD9" t="n">
+        <v>1</v>
+      </c>
       <c r="CE9" t="inlineStr"/>
       <c r="CF9" t="inlineStr"/>
       <c r="CG9" t="inlineStr"/>
@@ -2182,95 +2306,109 @@
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
-      <c r="CM9" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ9" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>a337927f-785b-4016-9075-03ea0916d6b6</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="n">
         <v>1303211</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1001516956</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>21</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>5468</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>266</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr">
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr">
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
@@ -2278,29 +2416,29 @@
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>1303211</t>
-        </is>
-      </c>
+      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr">
         <is>
+          <t>1303211</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr">
+        <is>
           <t>JIBAN</t>
         </is>
       </c>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
       <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr">
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr">
         <is>
           <t>POUDEL</t>
         </is>
       </c>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
@@ -2309,32 +2447,32 @@
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr">
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="n">
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="n">
         <v>1760653</v>
       </c>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr">
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
       <c r="BX10" t="inlineStr"/>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB10" t="inlineStr"/>
       <c r="CC10" t="inlineStr"/>
-      <c r="CD10" t="inlineStr"/>
+      <c r="CD10" t="n">
+        <v>1</v>
+      </c>
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="inlineStr"/>
       <c r="CG10" t="inlineStr"/>
@@ -2343,95 +2481,109 @@
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
-      <c r="CM10" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ10" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3324d623-7cd4-45df-9ab3-28c5514f65d0</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C11" t="n">
         <v>1417237</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>1001586650</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>21</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>5266</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>266</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr">
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr">
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
@@ -2439,29 +2591,29 @@
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>1417237</t>
-        </is>
-      </c>
+      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr">
         <is>
+          <t>1417237</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr">
+        <is>
           <t>ANJITA</t>
         </is>
       </c>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
       <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr">
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr">
         <is>
           <t>SHRESTHA</t>
         </is>
       </c>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
@@ -2470,32 +2622,32 @@
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr">
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="n">
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="n">
         <v>1678396</v>
       </c>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr">
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
       <c r="BX11" t="inlineStr"/>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
       <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB11" t="inlineStr"/>
       <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr"/>
+      <c r="CD11" t="n">
+        <v>1</v>
+      </c>
       <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="inlineStr"/>
       <c r="CG11" t="inlineStr"/>
@@ -2504,95 +2656,109 @@
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
-      <c r="CM11" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ11" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>fec5403d-fe42-4fd4-a2fd-3abedc45ad8e</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C12" t="n">
         <v>1431295</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>1001174600</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
         <v>21</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>5227</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>266</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr">
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr">
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
@@ -2600,29 +2766,29 @@
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr">
-        <is>
-          <t>1431295</t>
-        </is>
-      </c>
+      <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr">
         <is>
+          <t>1431295</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr">
+        <is>
           <t>CHANDRA</t>
         </is>
       </c>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="n">
-        <v>0</v>
-      </c>
       <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr">
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr">
         <is>
           <t>MAGAR</t>
         </is>
       </c>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
@@ -2631,32 +2797,32 @@
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr">
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="n">
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="n">
         <v>809273</v>
       </c>
-      <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr">
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV12" t="inlineStr"/>
-      <c r="BW12" t="inlineStr"/>
       <c r="BX12" t="inlineStr"/>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
       <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB12" t="inlineStr"/>
       <c r="CC12" t="inlineStr"/>
-      <c r="CD12" t="inlineStr"/>
+      <c r="CD12" t="n">
+        <v>1</v>
+      </c>
       <c r="CE12" t="inlineStr"/>
       <c r="CF12" t="inlineStr"/>
       <c r="CG12" t="inlineStr"/>
@@ -2665,95 +2831,109 @@
       <c r="CJ12" t="inlineStr"/>
       <c r="CK12" t="inlineStr"/>
       <c r="CL12" t="inlineStr"/>
-      <c r="CM12" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ12" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>e972834c-56a2-4556-b19f-d22278ae5cd8</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C13" t="n">
         <v>1447942</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>1000473137</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
         <v>21</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>5482</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>266</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr">
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr">
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
@@ -2761,29 +2941,29 @@
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>1447942</t>
-        </is>
-      </c>
+      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr">
         <is>
+          <t>1447942</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr">
+        <is>
           <t>MANCHALI</t>
         </is>
       </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
       <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr">
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr">
         <is>
           <t>MAHARJAN</t>
         </is>
       </c>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
@@ -2792,32 +2972,32 @@
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr">
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="n">
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="n">
         <v>885145</v>
       </c>
-      <c r="BT13" t="inlineStr"/>
-      <c r="BU13" t="inlineStr">
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
       <c r="BX13" t="inlineStr"/>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB13" t="inlineStr"/>
       <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr"/>
+      <c r="CD13" t="n">
+        <v>1</v>
+      </c>
       <c r="CE13" t="inlineStr"/>
       <c r="CF13" t="inlineStr"/>
       <c r="CG13" t="inlineStr"/>
@@ -2826,95 +3006,109 @@
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
       <c r="CL13" t="inlineStr"/>
-      <c r="CM13" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ13" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>68b320bd-bf8b-492d-8577-d40140a18e5a</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C14" t="n">
         <v>1448270</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>1001608033</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
         <v>21</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>5387</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>266</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr">
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr">
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr"/>
@@ -2922,29 +3116,29 @@
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>1448270</t>
-        </is>
-      </c>
+      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr">
         <is>
+          <t>1448270</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr">
+        <is>
           <t>SANTOSH</t>
         </is>
       </c>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
       <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr">
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr">
         <is>
           <t>CHAUDHARY</t>
         </is>
       </c>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
@@ -2953,32 +3147,32 @@
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
-      <c r="BQ14" t="inlineStr">
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="n">
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="n">
         <v>887451</v>
       </c>
-      <c r="BT14" t="inlineStr"/>
-      <c r="BU14" t="inlineStr">
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
       <c r="BX14" t="inlineStr"/>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="inlineStr"/>
-      <c r="CB14" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB14" t="inlineStr"/>
       <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr"/>
+      <c r="CD14" t="n">
+        <v>1</v>
+      </c>
       <c r="CE14" t="inlineStr"/>
       <c r="CF14" t="inlineStr"/>
       <c r="CG14" t="inlineStr"/>
@@ -2987,95 +3181,109 @@
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
-      <c r="CM14" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ14" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>397cdf8c-9954-45d8-b849-b3f8181855d0</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C15" t="n">
         <v>1448846</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>1001093604</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
         <v>21</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>5419</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>266</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr">
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr">
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr"/>
@@ -3083,29 +3291,29 @@
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr">
-        <is>
-          <t>1448846</t>
-        </is>
-      </c>
+      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr">
         <is>
+          <t>1448846</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr">
+        <is>
           <t>SRIJANA</t>
         </is>
       </c>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
       <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr">
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr">
         <is>
           <t>YADAV</t>
         </is>
       </c>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
@@ -3114,32 +3322,32 @@
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr">
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="n">
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="n">
         <v>798551</v>
       </c>
-      <c r="BT15" t="inlineStr"/>
-      <c r="BU15" t="inlineStr">
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
       <c r="BX15" t="inlineStr"/>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB15" t="inlineStr"/>
       <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="inlineStr"/>
+      <c r="CD15" t="n">
+        <v>1</v>
+      </c>
       <c r="CE15" t="inlineStr"/>
       <c r="CF15" t="inlineStr"/>
       <c r="CG15" t="inlineStr"/>
@@ -3148,95 +3356,109 @@
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
-      <c r="CM15" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ15" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>99853e2d-25f0-4b15-818e-409d79339bcd</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C16" t="n">
         <v>1550076</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>1001679298</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
         <v>21</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
         <v>5273</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>266</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr">
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr">
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
@@ -3244,29 +3466,29 @@
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr">
-        <is>
-          <t>1550076</t>
-        </is>
-      </c>
+      <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr">
         <is>
+          <t>1550076</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr">
+        <is>
           <t>RUPESH</t>
         </is>
       </c>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
       <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr">
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr">
         <is>
           <t>DAS</t>
         </is>
       </c>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
@@ -3275,32 +3497,32 @@
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="inlineStr">
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="n">
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="n">
         <v>798601</v>
       </c>
-      <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="inlineStr">
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
       <c r="BX16" t="inlineStr"/>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="inlineStr"/>
-      <c r="CB16" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB16" t="inlineStr"/>
       <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="inlineStr"/>
+      <c r="CD16" t="n">
+        <v>1</v>
+      </c>
       <c r="CE16" t="inlineStr"/>
       <c r="CF16" t="inlineStr"/>
       <c r="CG16" t="inlineStr"/>
@@ -3309,99 +3531,113 @@
       <c r="CJ16" t="inlineStr"/>
       <c r="CK16" t="inlineStr"/>
       <c r="CL16" t="inlineStr"/>
-      <c r="CM16" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ16" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14d018a4-55a6-4f98-8348-5f1cacd095f2</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C17" t="n">
         <v>1559410</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1007R01007045</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
         <v>21</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
         <v>5186</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>266</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr">
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
         <is>
           <t>1966-04-13T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr">
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr">
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
@@ -3409,29 +3645,29 @@
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr">
-        <is>
-          <t>1559410</t>
-        </is>
-      </c>
+      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr">
         <is>
+          <t>1559410</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr">
+        <is>
           <t>NAIMODIN</t>
         </is>
       </c>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
       <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr">
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr">
         <is>
           <t>MIYA</t>
         </is>
       </c>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
@@ -3440,32 +3676,32 @@
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
-      <c r="BQ17" t="inlineStr">
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="n">
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="n">
         <v>1320952</v>
       </c>
-      <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="inlineStr">
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
       <c r="BX17" t="inlineStr"/>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB17" t="inlineStr"/>
       <c r="CC17" t="inlineStr"/>
-      <c r="CD17" t="inlineStr"/>
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
       <c r="CE17" t="inlineStr"/>
       <c r="CF17" t="inlineStr"/>
       <c r="CG17" t="inlineStr"/>
@@ -3474,99 +3710,113 @@
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
-      <c r="CM17" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ17" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>004989ff-34d6-4d4f-9b10-0ad07bb2bb24</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C18" t="n">
         <v>1711130</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1007319749297</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
         <v>21</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
         <v>5289</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>266</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr">
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
         <is>
           <t>1988-02-17T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr">
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr">
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
@@ -3574,29 +3824,29 @@
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr">
-        <is>
-          <t>1711130</t>
-        </is>
-      </c>
+      <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr">
         <is>
+          <t>1711130</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr">
+        <is>
           <t>SHYAM</t>
         </is>
       </c>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
       <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="inlineStr">
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr">
         <is>
           <t>CHAUDHARY</t>
         </is>
       </c>
-      <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr"/>
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
@@ -3605,32 +3855,32 @@
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="inlineStr">
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="n">
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="n">
         <v>1249841</v>
       </c>
-      <c r="BT18" t="inlineStr"/>
-      <c r="BU18" t="inlineStr">
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV18" t="inlineStr"/>
-      <c r="BW18" t="inlineStr"/>
       <c r="BX18" t="inlineStr"/>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB18" t="inlineStr"/>
       <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr"/>
+      <c r="CD18" t="n">
+        <v>1</v>
+      </c>
       <c r="CE18" t="inlineStr"/>
       <c r="CF18" t="inlineStr"/>
       <c r="CG18" t="inlineStr"/>
@@ -3639,95 +3889,109 @@
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
-      <c r="CM18" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ18" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>e294b223-38a2-47b0-834d-ca3eda7c8422</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C19" t="n">
         <v>1789419</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>1000631489</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
         <v>21</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
         <v>5150</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>266</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr">
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr">
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
@@ -3735,29 +3999,29 @@
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr">
-        <is>
-          <t>1789419</t>
-        </is>
-      </c>
+      <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr">
         <is>
+          <t>1789419</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr">
+        <is>
           <t>ARJUN</t>
         </is>
       </c>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
       <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr">
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr">
         <is>
           <t>SHRESTHA</t>
         </is>
       </c>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="inlineStr"/>
@@ -3766,32 +4030,32 @@
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="inlineStr">
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="n">
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="n">
         <v>1020535</v>
       </c>
-      <c r="BT19" t="inlineStr"/>
-      <c r="BU19" t="inlineStr">
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV19" t="inlineStr"/>
-      <c r="BW19" t="inlineStr"/>
       <c r="BX19" t="inlineStr"/>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
       <c r="CA19" t="inlineStr"/>
-      <c r="CB19" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB19" t="inlineStr"/>
       <c r="CC19" t="inlineStr"/>
-      <c r="CD19" t="inlineStr"/>
+      <c r="CD19" t="n">
+        <v>1</v>
+      </c>
       <c r="CE19" t="inlineStr"/>
       <c r="CF19" t="inlineStr"/>
       <c r="CG19" t="inlineStr"/>
@@ -3800,99 +4064,113 @@
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
-      <c r="CM19" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ19" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>edbdb52d-4fa6-48cd-a086-470e918678d3</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C20" t="n">
         <v>1814727</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>10071R01651971</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
         <v>21</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
         <v>5273</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>266</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr">
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
         <is>
           <t>1993-02-28T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr">
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr">
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
@@ -3900,29 +4178,29 @@
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr">
-        <is>
-          <t>1814727</t>
-        </is>
-      </c>
+      <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr">
         <is>
+          <t>1814727</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr">
+        <is>
           <t>BINOD</t>
         </is>
       </c>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
       <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="inlineStr">
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr">
         <is>
           <t>RAI</t>
         </is>
       </c>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
@@ -3931,32 +4209,32 @@
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="inlineStr">
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR20" t="inlineStr"/>
-      <c r="BS20" t="n">
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="n">
         <v>873023</v>
       </c>
-      <c r="BT20" t="inlineStr"/>
-      <c r="BU20" t="inlineStr">
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV20" t="inlineStr"/>
-      <c r="BW20" t="inlineStr"/>
       <c r="BX20" t="inlineStr"/>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
       <c r="CA20" t="inlineStr"/>
-      <c r="CB20" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB20" t="inlineStr"/>
       <c r="CC20" t="inlineStr"/>
-      <c r="CD20" t="inlineStr"/>
+      <c r="CD20" t="n">
+        <v>1</v>
+      </c>
       <c r="CE20" t="inlineStr"/>
       <c r="CF20" t="inlineStr"/>
       <c r="CG20" t="inlineStr"/>
@@ -3965,99 +4243,113 @@
       <c r="CJ20" t="inlineStr"/>
       <c r="CK20" t="inlineStr"/>
       <c r="CL20" t="inlineStr"/>
-      <c r="CM20" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ20" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04ed9347-568c-491f-928b-d3eefd768da6</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C21" t="n">
         <v>1949098</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1007R01562055</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
         <v>21</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
         <v>5313</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>266</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr">
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
         <is>
           <t>1989-11-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr">
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr">
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
@@ -4065,29 +4357,29 @@
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr">
-        <is>
-          <t>1949098</t>
-        </is>
-      </c>
+      <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr">
         <is>
+          <t>1949098</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr">
+        <is>
           <t>PRABAL</t>
         </is>
       </c>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
       <c r="BE21" t="inlineStr"/>
-      <c r="BF21" t="inlineStr">
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr">
         <is>
           <t>ARYAL</t>
         </is>
       </c>
-      <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
@@ -4096,32 +4388,32 @@
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
-      <c r="BQ21" t="inlineStr">
+      <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr">
         <is>
           <t>2023-03-24T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="n">
+      <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="n">
         <v>1404407</v>
       </c>
-      <c r="BT21" t="inlineStr"/>
-      <c r="BU21" t="inlineStr">
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV21" t="inlineStr"/>
-      <c r="BW21" t="inlineStr"/>
       <c r="BX21" t="inlineStr"/>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="inlineStr"/>
-      <c r="CB21" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB21" t="inlineStr"/>
       <c r="CC21" t="inlineStr"/>
-      <c r="CD21" t="inlineStr"/>
+      <c r="CD21" t="n">
+        <v>1</v>
+      </c>
       <c r="CE21" t="inlineStr"/>
       <c r="CF21" t="inlineStr"/>
       <c r="CG21" t="inlineStr"/>
@@ -4130,95 +4422,109 @@
       <c r="CJ21" t="inlineStr"/>
       <c r="CK21" t="inlineStr"/>
       <c r="CL21" t="inlineStr"/>
-      <c r="CM21" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM21" t="inlineStr"/>
+      <c r="CN21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr"/>
+      <c r="CP21" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ21" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>51f52919-c37b-4202-a243-14c65125351a</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C22" t="n">
         <v>2032763</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1000801923</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
         <v>21</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
         <v>5295</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>266</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr">
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
         <is>
           <t>2023-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr">
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
@@ -4226,29 +4532,29 @@
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr">
-        <is>
-          <t>2032763</t>
-        </is>
-      </c>
+      <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr">
         <is>
+          <t>2032763</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr">
+        <is>
           <t>TRISHANA</t>
         </is>
       </c>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
       <c r="BE22" t="inlineStr"/>
-      <c r="BF22" t="inlineStr">
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr">
         <is>
           <t>BASNET</t>
         </is>
       </c>
-      <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr"/>
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
@@ -4257,32 +4563,32 @@
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="inlineStr">
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr">
         <is>
           <t>2023-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR22" t="inlineStr"/>
-      <c r="BS22" t="n">
+      <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="n">
         <v>1459463</v>
       </c>
-      <c r="BT22" t="inlineStr"/>
-      <c r="BU22" t="inlineStr">
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr"/>
       <c r="BX22" t="inlineStr"/>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
       <c r="CA22" t="inlineStr"/>
-      <c r="CB22" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB22" t="inlineStr"/>
       <c r="CC22" t="inlineStr"/>
-      <c r="CD22" t="inlineStr"/>
+      <c r="CD22" t="n">
+        <v>1</v>
+      </c>
       <c r="CE22" t="inlineStr"/>
       <c r="CF22" t="inlineStr"/>
       <c r="CG22" t="inlineStr"/>
@@ -4291,95 +4597,109 @@
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
-      <c r="CM22" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM22" t="inlineStr"/>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr"/>
+      <c r="CP22" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ22" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>6c097ac3-c18c-4fba-acde-100d40751a8c</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C23" t="n">
         <v>2159451</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>1002047338</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
         <v>21</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
         <v>5188</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>266</v>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr">
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
         <is>
           <t>2023-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr">
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
@@ -4387,29 +4707,29 @@
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr">
-        <is>
-          <t>2159451</t>
-        </is>
-      </c>
+      <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr">
         <is>
+          <t>2159451</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr">
+        <is>
           <t>KAMAL</t>
         </is>
       </c>
-      <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
       <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr">
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr">
         <is>
           <t>GURUNG</t>
         </is>
       </c>
-      <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
@@ -4418,32 +4738,32 @@
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
-      <c r="BQ23" t="inlineStr">
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr">
         <is>
           <t>2023-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="n">
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="n">
         <v>1847208</v>
       </c>
-      <c r="BT23" t="inlineStr"/>
-      <c r="BU23" t="inlineStr">
+      <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV23" t="inlineStr"/>
-      <c r="BW23" t="inlineStr"/>
       <c r="BX23" t="inlineStr"/>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
       <c r="CA23" t="inlineStr"/>
-      <c r="CB23" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB23" t="inlineStr"/>
       <c r="CC23" t="inlineStr"/>
-      <c r="CD23" t="inlineStr"/>
+      <c r="CD23" t="n">
+        <v>1</v>
+      </c>
       <c r="CE23" t="inlineStr"/>
       <c r="CF23" t="inlineStr"/>
       <c r="CG23" t="inlineStr"/>
@@ -4452,99 +4772,113 @@
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
-      <c r="CM23" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM23" t="inlineStr"/>
+      <c r="CN23" t="inlineStr"/>
+      <c r="CO23" t="inlineStr"/>
+      <c r="CP23" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ23" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>f78657d2-cdfa-4a71-9da8-9d7b7b4a328d</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C24" t="n">
         <v>2161658</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1007R01731860</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
         <v>21</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
         <v>5188</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>266</v>
       </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr">
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr">
         <is>
           <t>1979-03-03T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr">
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
         <is>
           <t>2023-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr">
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AR24" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
@@ -4552,29 +4886,29 @@
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr">
-        <is>
-          <t>2161658</t>
-        </is>
-      </c>
+      <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr">
         <is>
+          <t>2161658</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr">
+        <is>
           <t>GANESH</t>
         </is>
       </c>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="n">
-        <v>0</v>
-      </c>
       <c r="BE24" t="inlineStr"/>
-      <c r="BF24" t="inlineStr">
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr">
         <is>
           <t>SHIWAKOTI</t>
         </is>
       </c>
-      <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr"/>
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="inlineStr"/>
@@ -4583,32 +4917,32 @@
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="inlineStr">
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr">
         <is>
           <t>2023-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR24" t="inlineStr"/>
-      <c r="BS24" t="n">
+      <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="n">
         <v>1478359</v>
       </c>
-      <c r="BT24" t="inlineStr"/>
-      <c r="BU24" t="inlineStr">
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV24" t="inlineStr"/>
-      <c r="BW24" t="inlineStr"/>
       <c r="BX24" t="inlineStr"/>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
       <c r="CA24" t="inlineStr"/>
-      <c r="CB24" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB24" t="inlineStr"/>
       <c r="CC24" t="inlineStr"/>
-      <c r="CD24" t="inlineStr"/>
+      <c r="CD24" t="n">
+        <v>1</v>
+      </c>
       <c r="CE24" t="inlineStr"/>
       <c r="CF24" t="inlineStr"/>
       <c r="CG24" t="inlineStr"/>
@@ -4617,99 +4951,113 @@
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
-      <c r="CM24" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM24" t="inlineStr"/>
+      <c r="CN24" t="inlineStr"/>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ24" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4693100c-439e-4c33-a8a1-58f5e919be5a</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C25" t="n">
         <v>2364531</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>1007R00587212</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
         <v>21</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
         <v>5328</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>266</v>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr">
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr">
         <is>
           <t>1991-01-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr">
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
         <is>
           <t>2023-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr">
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AR25" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
@@ -4717,65 +5065,67 @@
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr">
-        <is>
-          <t>2364531</t>
-        </is>
-      </c>
+      <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="inlineStr">
         <is>
+          <t>2364531</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr">
+        <is>
           <t>BB</t>
         </is>
       </c>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
       <c r="BE25" t="inlineStr"/>
-      <c r="BF25" t="inlineStr">
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr">
         <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr"/>
       <c r="BI25" t="inlineStr"/>
       <c r="BJ25" t="inlineStr"/>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
+      <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>0000000000</t>
+        </is>
+      </c>
       <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
-      <c r="BQ25" t="inlineStr">
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr">
         <is>
           <t>2023-03-25T00:00:00.000000</t>
         </is>
       </c>
-      <c r="BR25" t="inlineStr"/>
-      <c r="BS25" t="n">
+      <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="n">
         <v>2037346</v>
       </c>
-      <c r="BT25" t="inlineStr"/>
-      <c r="BU25" t="inlineStr">
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV25" t="inlineStr"/>
-      <c r="BW25" t="inlineStr"/>
       <c r="BX25" t="inlineStr"/>
       <c r="BY25" t="inlineStr"/>
       <c r="BZ25" t="inlineStr"/>
       <c r="CA25" t="inlineStr"/>
-      <c r="CB25" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB25" t="inlineStr"/>
       <c r="CC25" t="inlineStr"/>
-      <c r="CD25" t="inlineStr"/>
+      <c r="CD25" t="n">
+        <v>1</v>
+      </c>
       <c r="CE25" t="inlineStr"/>
       <c r="CF25" t="inlineStr"/>
       <c r="CG25" t="inlineStr"/>
@@ -4784,43 +5134,57 @@
       <c r="CJ25" t="inlineStr"/>
       <c r="CK25" t="inlineStr"/>
       <c r="CL25" t="inlineStr"/>
-      <c r="CM25" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ25" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4ee81c82-352f-48f7-889e-899ddc49f850</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C26" t="n">
         <v>2507599</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0010070099I0002507599</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
         <v>21</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
         <v>5199</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -4835,120 +5199,122 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr">
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr">
         <is>
           <t>1951-01-31T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr">
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr">
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr">
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
+      <c r="AR26" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>GOVIND_N_SHARMA@HOTMAIL.CO.UK</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr">
-        <is>
-          <t>Null</t>
-        </is>
-      </c>
+      <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr">
         <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr">
+        <is>
           <t>GOVIND</t>
         </is>
       </c>
-      <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
-      <c r="BF26" t="inlineStr">
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr">
         <is>
           <t>SHARMA</t>
         </is>
       </c>
-      <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr"/>
-      <c r="BI26" t="inlineStr">
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr">
         <is>
           <t>NARAYAN</t>
         </is>
       </c>
-      <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="n">
-        <v>9861829980</v>
-      </c>
       <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>9861829980</t>
+        </is>
+      </c>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
-      <c r="BS26" t="n">
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="n">
         <v>2438638</v>
       </c>
-      <c r="BT26" t="inlineStr"/>
-      <c r="BU26" t="inlineStr">
+      <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV26" t="inlineStr">
+      <c r="BX26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="BW26" t="inlineStr"/>
-      <c r="BX26" t="inlineStr"/>
       <c r="BY26" t="inlineStr"/>
       <c r="BZ26" t="inlineStr"/>
       <c r="CA26" t="inlineStr"/>
-      <c r="CB26" t="n">
-        <v>1</v>
-      </c>
+      <c r="CB26" t="inlineStr"/>
       <c r="CC26" t="inlineStr"/>
-      <c r="CD26" t="inlineStr"/>
+      <c r="CD26" t="n">
+        <v>1</v>
+      </c>
       <c r="CE26" t="inlineStr"/>
       <c r="CF26" t="inlineStr"/>
       <c r="CG26" t="inlineStr"/>
@@ -4957,43 +5323,57 @@
       <c r="CJ26" t="inlineStr"/>
       <c r="CK26" t="inlineStr"/>
       <c r="CL26" t="inlineStr"/>
-      <c r="CM26" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM26" t="inlineStr"/>
+      <c r="CN26" t="inlineStr"/>
+      <c r="CO26" t="inlineStr"/>
+      <c r="CP26" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ26" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3968cf45-006b-45d5-9af8-fa0abb52e773</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C27" t="n">
         <v>2624525</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0010070099I0002624525</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
         <v>21</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
         <v>5199</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -5008,116 +5388,118 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr">
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr">
         <is>
           <t>1970-01-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr">
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr">
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr">
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr">
+      <c r="AR27" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>testnic@nicasia.com</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr">
-        <is>
-          <t>2624525</t>
-        </is>
-      </c>
+      <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr">
         <is>
+          <t>2624525</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr">
+        <is>
           <t>KHIMANANDA</t>
         </is>
       </c>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
       <c r="BE27" t="inlineStr"/>
-      <c r="BF27" t="inlineStr">
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr">
         <is>
           <t>GYAWALI</t>
         </is>
       </c>
-      <c r="BG27" t="inlineStr"/>
-      <c r="BH27" t="inlineStr"/>
       <c r="BI27" t="inlineStr"/>
       <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="n">
-        <v>9860776051</v>
-      </c>
+      <c r="BK27" t="inlineStr"/>
       <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>9860776051</t>
+        </is>
+      </c>
       <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
-      <c r="BS27" t="n">
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="n">
         <v>2555084</v>
       </c>
-      <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="inlineStr">
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV27" t="inlineStr">
+      <c r="BX27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="BW27" t="inlineStr"/>
-      <c r="BX27" t="inlineStr"/>
       <c r="BY27" t="inlineStr"/>
       <c r="BZ27" t="inlineStr"/>
       <c r="CA27" t="inlineStr"/>
-      <c r="CB27" t="n">
+      <c r="CB27" t="inlineStr"/>
+      <c r="CC27" t="inlineStr"/>
+      <c r="CD27" t="n">
         <v>9</v>
       </c>
-      <c r="CC27" t="inlineStr"/>
-      <c r="CD27" t="inlineStr"/>
       <c r="CE27" t="inlineStr"/>
       <c r="CF27" t="inlineStr"/>
       <c r="CG27" t="inlineStr"/>
@@ -5126,56 +5508,70 @@
       <c r="CJ27" t="inlineStr"/>
       <c r="CK27" t="inlineStr"/>
       <c r="CL27" t="inlineStr"/>
-      <c r="CM27" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr"/>
+      <c r="CP27" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ27" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>e34ec0dc-6c47-4dfc-bbe0-7087c0cbac7b</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C28" t="n">
         <v>2688564</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>R02275983</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="E28" t="n">
         <v>3</v>
       </c>
-      <c r="D28" t="n">
+      <c r="F28" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>21</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
         <v>5485</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>266</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>266</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -5185,146 +5581,158 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>2020-08-07T00:00:00.000000</t>
-        </is>
+      <c r="AA28" t="n">
+        <v>0</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr">
         <is>
+          <t>2020-08-07T00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr">
+        <is>
           <t>SYANGBOCHE</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr">
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr">
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr">
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
+      <c r="AR28" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>CHHETRISIRJU1994@GMAIL.COM</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr">
-        <is>
-          <t>2077042301248</t>
-        </is>
-      </c>
+      <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr">
         <is>
+          <t>2077042301248</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr">
+        <is>
           <t>DIWANSHI</t>
         </is>
       </c>
-      <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="inlineStr"/>
       <c r="BE28" t="inlineStr"/>
-      <c r="BF28" t="inlineStr">
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr">
         <is>
           <t>MAHAT</t>
         </is>
       </c>
-      <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="inlineStr"/>
       <c r="BI28" t="inlineStr"/>
       <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="n">
-        <v>9869212111</v>
-      </c>
+      <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="n">
-        <v>9869212111</v>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>9869212111</t>
+        </is>
       </c>
       <c r="BN28" t="inlineStr"/>
-      <c r="BO28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>9869212111</t>
+        </is>
+      </c>
       <c r="BP28" t="inlineStr"/>
-      <c r="BQ28" t="inlineStr">
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
-      <c r="BR28" t="inlineStr"/>
-      <c r="BS28" t="n">
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="n">
         <v>2620002</v>
       </c>
-      <c r="BT28" t="inlineStr"/>
-      <c r="BU28" t="inlineStr">
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BV28" t="inlineStr">
+      <c r="BX28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BW28" t="inlineStr"/>
-      <c r="BX28" t="inlineStr"/>
       <c r="BY28" t="inlineStr"/>
       <c r="BZ28" t="inlineStr"/>
       <c r="CA28" t="inlineStr"/>
-      <c r="CB28" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC28" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD28" t="inlineStr"/>
-      <c r="CE28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
+      <c r="CC28" t="inlineStr"/>
+      <c r="CD28" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>1</v>
+      </c>
       <c r="CF28" t="inlineStr"/>
       <c r="CG28" t="inlineStr"/>
-      <c r="CH28" t="n">
+      <c r="CH28" t="inlineStr"/>
+      <c r="CI28" t="inlineStr"/>
+      <c r="CJ28" t="n">
         <v>10</v>
       </c>
-      <c r="CI28" t="n">
+      <c r="CK28" t="n">
         <v>10</v>
       </c>
-      <c r="CJ28" t="inlineStr"/>
-      <c r="CK28" t="inlineStr"/>
       <c r="CL28" t="inlineStr"/>
-      <c r="CM28" s="2" t="n">
-        <v>45511.29479166667</v>
+      <c r="CM28" t="inlineStr"/>
+      <c r="CN28" t="inlineStr"/>
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CUSTOMER_CARDHOLDER/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="CQ28" s="2" t="n">
+        <v>45511.29479166259</v>
       </c>
     </row>
   </sheetData>
